--- a/Code/Results/Cases/Case_6_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_7/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003610767971109</v>
+        <v>1.003610767971107</v>
       </c>
       <c r="D2">
-        <v>1.021289963266342</v>
+        <v>1.021289963266341</v>
       </c>
       <c r="E2">
-        <v>1.013825822305068</v>
+        <v>1.013825822305067</v>
       </c>
       <c r="F2">
-        <v>1.016828311515073</v>
+        <v>1.016828311515071</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047321383197938</v>
+        <v>1.047321383197937</v>
       </c>
       <c r="J2">
-        <v>1.025684015345198</v>
+        <v>1.025684015345196</v>
       </c>
       <c r="K2">
-        <v>1.032460453882427</v>
+        <v>1.032460453882426</v>
       </c>
       <c r="L2">
-        <v>1.025095844079523</v>
+        <v>1.025095844079521</v>
       </c>
       <c r="M2">
-        <v>1.028058075740957</v>
+        <v>1.028058075740955</v>
       </c>
       <c r="N2">
-        <v>1.027140604294589</v>
+        <v>1.027140604294587</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,13 +462,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01373194322797</v>
+        <v>1.013731943227971</v>
       </c>
       <c r="D3">
-        <v>1.029129726030538</v>
+        <v>1.029129726030539</v>
       </c>
       <c r="E3">
-        <v>1.022988774893801</v>
+        <v>1.022988774893802</v>
       </c>
       <c r="F3">
         <v>1.026835999016765</v>
@@ -480,19 +480,19 @@
         <v>1.050809050507514</v>
       </c>
       <c r="J3">
-        <v>1.033855135056497</v>
+        <v>1.033855135056498</v>
       </c>
       <c r="K3">
-        <v>1.039402974488716</v>
+        <v>1.039402974488717</v>
       </c>
       <c r="L3">
-        <v>1.033335722780269</v>
+        <v>1.03333572278027</v>
       </c>
       <c r="M3">
         <v>1.037136647253569</v>
       </c>
       <c r="N3">
-        <v>1.035323327933119</v>
+        <v>1.03532332793312</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020021030103322</v>
+        <v>1.020021030103323</v>
       </c>
       <c r="D4">
-        <v>1.034002999790499</v>
+        <v>1.0340029997905</v>
       </c>
       <c r="E4">
-        <v>1.028684959591441</v>
+        <v>1.028684959591442</v>
       </c>
       <c r="F4">
-        <v>1.03306145890614</v>
+        <v>1.033061458906141</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,19 +521,19 @@
         <v>1.052958494288936</v>
       </c>
       <c r="J4">
-        <v>1.038926100319123</v>
+        <v>1.038926100319124</v>
       </c>
       <c r="K4">
-        <v>1.043707653985651</v>
+        <v>1.043707653985652</v>
       </c>
       <c r="L4">
-        <v>1.038449083175728</v>
+        <v>1.038449083175729</v>
       </c>
       <c r="M4">
-        <v>1.042776587072785</v>
+        <v>1.042776587072786</v>
       </c>
       <c r="N4">
-        <v>1.040401494548065</v>
+        <v>1.040401494548067</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,16 +544,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022607409192675</v>
+        <v>1.022607409192676</v>
       </c>
       <c r="D5">
         <v>1.036007379096364</v>
       </c>
       <c r="E5">
-        <v>1.031028013294464</v>
+        <v>1.031028013294466</v>
       </c>
       <c r="F5">
-        <v>1.03562324594764</v>
+        <v>1.035623245947641</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,19 +562,19 @@
         <v>1.053838108195438</v>
       </c>
       <c r="J5">
-        <v>1.041009909791856</v>
+        <v>1.041009909791857</v>
       </c>
       <c r="K5">
         <v>1.045475607059056</v>
       </c>
       <c r="L5">
-        <v>1.040550257364352</v>
+        <v>1.040550257364353</v>
       </c>
       <c r="M5">
-        <v>1.045095618311811</v>
+        <v>1.045095618311812</v>
       </c>
       <c r="N5">
-        <v>1.042488263269266</v>
+        <v>1.042488263269267</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023038424703794</v>
+        <v>1.023038424703796</v>
       </c>
       <c r="D6">
-        <v>1.036341415195143</v>
+        <v>1.036341415195145</v>
       </c>
       <c r="E6">
-        <v>1.031418506092723</v>
+        <v>1.031418506092725</v>
       </c>
       <c r="F6">
-        <v>1.036050253750721</v>
+        <v>1.036050253750723</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053984436290505</v>
+        <v>1.053984436290506</v>
       </c>
       <c r="J6">
-        <v>1.041357075441158</v>
+        <v>1.041357075441159</v>
       </c>
       <c r="K6">
-        <v>1.045770092290539</v>
+        <v>1.045770092290541</v>
       </c>
       <c r="L6">
-        <v>1.040900312943113</v>
+        <v>1.040900312943114</v>
       </c>
       <c r="M6">
-        <v>1.045482055947822</v>
+        <v>1.045482055947824</v>
       </c>
       <c r="N6">
-        <v>1.042835921933611</v>
+        <v>1.042835921933612</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020055809788279</v>
+        <v>1.020055809788276</v>
       </c>
       <c r="D7">
-        <v>1.03402995241001</v>
+        <v>1.034029952410008</v>
       </c>
       <c r="E7">
-        <v>1.028716465339852</v>
+        <v>1.02871646533985</v>
       </c>
       <c r="F7">
-        <v>1.033095901749307</v>
+        <v>1.033095901749304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052970340012928</v>
+        <v>1.052970340012927</v>
       </c>
       <c r="J7">
-        <v>1.038954128349331</v>
+        <v>1.038954128349329</v>
       </c>
       <c r="K7">
-        <v>1.043731437526824</v>
+        <v>1.043731437526823</v>
       </c>
       <c r="L7">
-        <v>1.038477344980197</v>
+        <v>1.038477344980195</v>
       </c>
       <c r="M7">
-        <v>1.042807773293851</v>
+        <v>1.042807773293849</v>
       </c>
       <c r="N7">
-        <v>1.040429562381291</v>
+        <v>1.040429562381289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007088108617316</v>
+        <v>1.007088108617315</v>
       </c>
       <c r="D8">
         <v>1.02398297330869</v>
       </c>
       <c r="E8">
-        <v>1.016973345136365</v>
+        <v>1.016973345136364</v>
       </c>
       <c r="F8">
-        <v>1.020265143852177</v>
+        <v>1.020265143852176</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048523352003283</v>
+        <v>1.048523352003282</v>
       </c>
       <c r="J8">
         <v>1.02849267901415</v>
       </c>
       <c r="K8">
-        <v>1.034847591310133</v>
+        <v>1.034847591310132</v>
       </c>
       <c r="L8">
-        <v>1.027928207118756</v>
+        <v>1.027928207118755</v>
       </c>
       <c r="M8">
         <v>1.031177433120021</v>
       </c>
       <c r="N8">
-        <v>1.02995325658811</v>
+        <v>1.029953256588109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819996875711178</v>
+        <v>0.9819996875711182</v>
       </c>
       <c r="D9">
         <v>1.004570368807542</v>
       </c>
       <c r="E9">
-        <v>0.9942806399514528</v>
+        <v>0.9942806399514532</v>
       </c>
       <c r="F9">
-        <v>0.9955034696133171</v>
+        <v>0.9955034696133176</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>1.017589727634116</v>
       </c>
       <c r="L9">
-        <v>1.007467196386543</v>
+        <v>1.007467196386544</v>
       </c>
       <c r="M9">
         <v>1.008669923605381</v>
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9633524281865881</v>
+        <v>0.9633524281865909</v>
       </c>
       <c r="D10">
-        <v>0.9901762068504198</v>
+        <v>0.9901762068504222</v>
       </c>
       <c r="E10">
-        <v>0.9774420701428068</v>
+        <v>0.9774420701428094</v>
       </c>
       <c r="F10">
-        <v>0.9771495323878161</v>
+        <v>0.9771495323878188</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033186443808519</v>
+        <v>1.03318644380852</v>
       </c>
       <c r="J10">
-        <v>0.9930994817066241</v>
+        <v>0.9930994817066268</v>
       </c>
       <c r="K10">
-        <v>1.004725127533763</v>
+        <v>1.004725127533765</v>
       </c>
       <c r="L10">
-        <v>0.9922309201027769</v>
+        <v>0.9922309201027792</v>
       </c>
       <c r="M10">
-        <v>0.9919439903709301</v>
+        <v>0.9919439903709325</v>
       </c>
       <c r="N10">
-        <v>0.99450979688075</v>
+        <v>0.9945097968807527</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9547005541318413</v>
+        <v>0.9547005541318393</v>
       </c>
       <c r="D11">
-        <v>0.9835107369227865</v>
+        <v>0.9835107369227853</v>
       </c>
       <c r="E11">
-        <v>0.9696389054678249</v>
+        <v>0.9696389054678232</v>
       </c>
       <c r="F11">
-        <v>0.9686480584733755</v>
+        <v>0.9686480584733739</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030109118412992</v>
+        <v>1.030109118412991</v>
       </c>
       <c r="J11">
-        <v>0.9860872952326343</v>
+        <v>0.9860872952326324</v>
       </c>
       <c r="K11">
-        <v>0.9987504632875992</v>
+        <v>0.9987504632875979</v>
       </c>
       <c r="L11">
-        <v>0.9851570362928878</v>
+        <v>0.9851570362928861</v>
       </c>
       <c r="M11">
-        <v>0.9841864779008029</v>
+        <v>0.9841864779008013</v>
       </c>
       <c r="N11">
-        <v>0.9874876522976581</v>
+        <v>0.9874876522976563</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.951386854418854</v>
+        <v>0.9513868544188536</v>
       </c>
       <c r="D12">
-        <v>0.9809603108305334</v>
+        <v>0.9809603108305335</v>
       </c>
       <c r="E12">
-        <v>0.9666519996516985</v>
+        <v>0.9666519996516981</v>
       </c>
       <c r="F12">
-        <v>0.9653943554979038</v>
+        <v>0.9653943554979033</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,16 +849,16 @@
         <v>1.028927820121993</v>
       </c>
       <c r="J12">
-        <v>0.9834012696293946</v>
+        <v>0.9834012696293943</v>
       </c>
       <c r="K12">
-        <v>0.9964616035729907</v>
+        <v>0.9964616035729909</v>
       </c>
       <c r="L12">
-        <v>0.9824472511669068</v>
+        <v>0.9824472511669065</v>
       </c>
       <c r="M12">
-        <v>0.9812159959968817</v>
+        <v>0.9812159959968814</v>
       </c>
       <c r="N12">
         <v>0.9847978122299704</v>
@@ -872,16 +872,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9521024256871616</v>
+        <v>0.9521024256871611</v>
       </c>
       <c r="D13">
-        <v>0.9815109376390192</v>
+        <v>0.981510937639019</v>
       </c>
       <c r="E13">
-        <v>0.9672969182449952</v>
+        <v>0.9672969182449945</v>
       </c>
       <c r="F13">
-        <v>0.9660968586449248</v>
+        <v>0.9660968586449246</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,19 +890,19 @@
         <v>1.029183029737525</v>
       </c>
       <c r="J13">
-        <v>0.983981309412413</v>
+        <v>0.9839813094124127</v>
       </c>
       <c r="K13">
-        <v>0.9969558858851812</v>
+        <v>0.996955885885181</v>
       </c>
       <c r="L13">
-        <v>0.9830324276197869</v>
+        <v>0.9830324276197863</v>
       </c>
       <c r="M13">
-        <v>0.9818574169822688</v>
+        <v>0.9818574169822684</v>
       </c>
       <c r="N13">
-        <v>0.9853786757360125</v>
+        <v>0.9853786757360122</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9544287702226206</v>
+        <v>0.9544287702226203</v>
       </c>
       <c r="D14">
-        <v>0.9833015021740819</v>
+        <v>0.9833015021740816</v>
       </c>
       <c r="E14">
-        <v>0.9693938876161723</v>
+        <v>0.969393887616172</v>
       </c>
       <c r="F14">
-        <v>0.9683811454932599</v>
+        <v>0.9683811454932592</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03001228284609</v>
+        <v>1.030012282846089</v>
       </c>
       <c r="J14">
-        <v>0.985866997208424</v>
+        <v>0.9858669972084235</v>
       </c>
       <c r="K14">
-        <v>0.9985627437851791</v>
+        <v>0.9985627437851788</v>
       </c>
       <c r="L14">
-        <v>0.9849347922138457</v>
+        <v>0.9849347922138453</v>
       </c>
       <c r="M14">
-        <v>0.9839428289752701</v>
+        <v>0.9839428289752695</v>
       </c>
       <c r="N14">
-        <v>0.9872670414249852</v>
+        <v>0.9872670414249846</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9558484084930641</v>
+        <v>0.9558484084930644</v>
       </c>
       <c r="D15">
-        <v>0.9843945239420528</v>
+        <v>0.9843945239420532</v>
       </c>
       <c r="E15">
         <v>0.9706737879727805</v>
       </c>
       <c r="F15">
-        <v>0.9697754392471662</v>
+        <v>0.9697754392471665</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030517987985252</v>
+        <v>1.030517987985253</v>
       </c>
       <c r="J15">
-        <v>0.9870176918186516</v>
+        <v>0.9870176918186521</v>
       </c>
       <c r="K15">
-        <v>0.9995432595896597</v>
+        <v>0.9995432595896602</v>
       </c>
       <c r="L15">
-        <v>0.9860956465838875</v>
+        <v>0.9860956465838878</v>
       </c>
       <c r="M15">
-        <v>0.9852155355288764</v>
+        <v>0.9852155355288768</v>
       </c>
       <c r="N15">
-        <v>0.9884193701535458</v>
+        <v>0.9884193701535461</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9639133923974291</v>
+        <v>0.9639133923974299</v>
       </c>
       <c r="D16">
-        <v>0.9906086857912875</v>
+        <v>0.9906086857912884</v>
       </c>
       <c r="E16">
-        <v>0.9779482251720283</v>
+        <v>0.9779482251720287</v>
       </c>
       <c r="F16">
-        <v>0.9777010570815208</v>
+        <v>0.977701057081521</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1013,19 +1013,19 @@
         <v>1.033385592112513</v>
       </c>
       <c r="J16">
-        <v>0.9935540737277802</v>
+        <v>0.9935540737277808</v>
       </c>
       <c r="K16">
-        <v>1.005112415939537</v>
+        <v>1.005112415939538</v>
       </c>
       <c r="L16">
-        <v>0.9926894952934677</v>
+        <v>0.9926894952934683</v>
       </c>
       <c r="M16">
         <v>0.9924470447660666</v>
       </c>
       <c r="N16">
-        <v>0.9949650344747185</v>
+        <v>0.9949650344747194</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,16 +1036,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9688092585683933</v>
+        <v>0.968809258568393</v>
       </c>
       <c r="D17">
         <v>0.9943846898176215</v>
       </c>
       <c r="E17">
-        <v>0.9823668281481354</v>
+        <v>0.9823668281481353</v>
       </c>
       <c r="F17">
-        <v>0.9825161545504351</v>
+        <v>0.9825161545504346</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1054,19 +1054,19 @@
         <v>1.035121550557787</v>
       </c>
       <c r="J17">
-        <v>0.997521164569465</v>
+        <v>0.9975211645694649</v>
       </c>
       <c r="K17">
         <v>1.008491897364931</v>
       </c>
       <c r="L17">
-        <v>0.9966912597415369</v>
+        <v>0.9966912597415368</v>
       </c>
       <c r="M17">
-        <v>0.996837844585414</v>
+        <v>0.9968378445854136</v>
       </c>
       <c r="N17">
-        <v>0.9989377590404306</v>
+        <v>0.9989377590404303</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9716102464648583</v>
+        <v>0.9716102464648562</v>
       </c>
       <c r="D18">
-        <v>0.9965461627525328</v>
+        <v>0.9965461627525313</v>
       </c>
       <c r="E18">
-        <v>0.9848956263691319</v>
+        <v>0.9848956263691301</v>
       </c>
       <c r="F18">
-        <v>0.9852722394098202</v>
+        <v>0.985272239409818</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036112911400466</v>
+        <v>1.036112911400465</v>
       </c>
       <c r="J18">
-        <v>0.9997904165685182</v>
+        <v>0.9997904165685162</v>
       </c>
       <c r="K18">
-        <v>1.010424781441922</v>
+        <v>1.01042478144192</v>
       </c>
       <c r="L18">
-        <v>0.9989802759042815</v>
+        <v>0.99898027590428</v>
       </c>
       <c r="M18">
-        <v>0.9993501298284604</v>
+        <v>0.9993501298284584</v>
       </c>
       <c r="N18">
-        <v>1.001210233637609</v>
+        <v>1.001210233637607</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9725563913130297</v>
+        <v>0.9725563913130267</v>
       </c>
       <c r="D19">
-        <v>0.9972764715942847</v>
+        <v>0.997276471594282</v>
       </c>
       <c r="E19">
-        <v>0.9857499661253647</v>
+        <v>0.9857499661253616</v>
       </c>
       <c r="F19">
-        <v>0.9862034316534714</v>
+        <v>0.9862034316534682</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036447470926947</v>
+        <v>1.036447470926946</v>
       </c>
       <c r="J19">
-        <v>1.000556877168125</v>
+        <v>1.000556877168122</v>
       </c>
       <c r="K19">
-        <v>1.011077586024651</v>
+        <v>1.011077586024649</v>
       </c>
       <c r="L19">
-        <v>0.9997534005410791</v>
+        <v>0.9997534005410762</v>
       </c>
       <c r="M19">
-        <v>1.000198790581774</v>
+        <v>1.000198790581771</v>
       </c>
       <c r="N19">
-        <v>1.001977782699182</v>
+        <v>1.001977782699178</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9682897216008657</v>
+        <v>0.9682897216008648</v>
       </c>
       <c r="D20">
-        <v>0.9939838643543216</v>
+        <v>0.9939838643543212</v>
       </c>
       <c r="E20">
-        <v>0.9818978457348089</v>
+        <v>0.9818978457348085</v>
       </c>
       <c r="F20">
-        <v>0.9820050509421127</v>
+        <v>0.9820050509421123</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1177,19 +1177,19 @@
         <v>1.034937521455438</v>
       </c>
       <c r="J20">
-        <v>0.9971002240780994</v>
+        <v>0.9971002240780984</v>
       </c>
       <c r="K20">
         <v>1.008133331631634</v>
       </c>
       <c r="L20">
-        <v>0.9962666474577411</v>
+        <v>0.9962666474577404</v>
       </c>
       <c r="M20">
-        <v>0.9963718762005594</v>
+        <v>0.9963718762005589</v>
       </c>
       <c r="N20">
-        <v>0.9985162207652843</v>
+        <v>0.9985162207652837</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9537466019878036</v>
+        <v>0.953746601987805</v>
       </c>
       <c r="D21">
-        <v>0.9827763717254669</v>
+        <v>0.9827763717254682</v>
       </c>
       <c r="E21">
-        <v>0.96877893022123</v>
+        <v>0.9687789302212311</v>
       </c>
       <c r="F21">
-        <v>0.9677112423947467</v>
+        <v>0.9677112423947478</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02976918695608</v>
+        <v>1.029769186956081</v>
       </c>
       <c r="J21">
-        <v>0.9853140523555443</v>
+        <v>0.9853140523555453</v>
       </c>
       <c r="K21">
-        <v>0.9980915668732914</v>
+        <v>0.9980915668732925</v>
       </c>
       <c r="L21">
-        <v>0.9843769607289936</v>
+        <v>0.9843769607289947</v>
       </c>
       <c r="M21">
-        <v>0.9833312902753724</v>
+        <v>0.9833312902753738</v>
       </c>
       <c r="N21">
-        <v>0.9867133113269904</v>
+        <v>0.9867133113269916</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.944015175969587</v>
+        <v>0.9440151759695858</v>
       </c>
       <c r="D22">
-        <v>0.9752918660415967</v>
+        <v>0.9752918660415961</v>
       </c>
       <c r="E22">
-        <v>0.9600109286586547</v>
+        <v>0.9600109286586536</v>
       </c>
       <c r="F22">
-        <v>0.9581609051100735</v>
+        <v>0.9581609051100723</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026295238794056</v>
+        <v>1.026295238794055</v>
       </c>
       <c r="J22">
-        <v>0.9774256213316479</v>
+        <v>0.9774256213316469</v>
       </c>
       <c r="K22">
-        <v>0.9913692175271467</v>
+        <v>0.9913692175271461</v>
       </c>
       <c r="L22">
-        <v>0.9764184982094705</v>
+        <v>0.9764184982094692</v>
       </c>
       <c r="M22">
-        <v>0.9746094047878706</v>
+        <v>0.9746094047878694</v>
       </c>
       <c r="N22">
-        <v>0.9788136778262249</v>
+        <v>0.9788136778262236</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9492349529252816</v>
+        <v>0.9492349529252785</v>
       </c>
       <c r="D23">
-        <v>0.9793048462906661</v>
+        <v>0.9793048462906637</v>
       </c>
       <c r="E23">
-        <v>0.964712850092881</v>
+        <v>0.9647128500928783</v>
       </c>
       <c r="F23">
-        <v>0.9632821257587135</v>
+        <v>0.9632821257587105</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028159969708175</v>
+        <v>1.028159969708173</v>
       </c>
       <c r="J23">
-        <v>0.9816569181184669</v>
+        <v>0.9816569181184641</v>
       </c>
       <c r="K23">
-        <v>0.994975123198103</v>
+        <v>0.9949751231981006</v>
       </c>
       <c r="L23">
-        <v>0.9806874328019711</v>
+        <v>0.9806874328019685</v>
       </c>
       <c r="M23">
-        <v>0.979287202996479</v>
+        <v>0.9792872029964761</v>
       </c>
       <c r="N23">
-        <v>0.9830509835398177</v>
+        <v>0.9830509835398148</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9685246460236655</v>
+        <v>0.9685246460236672</v>
       </c>
       <c r="D24">
-        <v>0.9941651061476788</v>
+        <v>0.9941651061476803</v>
       </c>
       <c r="E24">
-        <v>0.9821099077265779</v>
+        <v>0.9821099077265795</v>
       </c>
       <c r="F24">
-        <v>0.9822361579147723</v>
+        <v>0.9822361579147739</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1.035020741438905</v>
       </c>
       <c r="J24">
-        <v>0.9972905662838969</v>
+        <v>0.9972905662838984</v>
       </c>
       <c r="K24">
-        <v>1.008295469790898</v>
+        <v>1.008295469790899</v>
       </c>
       <c r="L24">
-        <v>0.9964586502028719</v>
+        <v>0.9964586502028732</v>
       </c>
       <c r="M24">
-        <v>0.996582577192168</v>
+        <v>0.9965825771921696</v>
       </c>
       <c r="N24">
-        <v>0.9987068332788469</v>
+        <v>0.998706833278848</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,7 +1364,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9887892663133098</v>
+        <v>0.9887892663133099</v>
       </c>
       <c r="D25">
         <v>1.009819503631593</v>

--- a/Code/Results/Cases/Case_6_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003610767971107</v>
+        <v>1.002407516243619</v>
       </c>
       <c r="D2">
-        <v>1.021289963266341</v>
+        <v>1.022242743690547</v>
       </c>
       <c r="E2">
-        <v>1.013825822305067</v>
+        <v>1.01473141191434</v>
       </c>
       <c r="F2">
-        <v>1.016828311515071</v>
+        <v>1.017242358716207</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047321383197937</v>
+        <v>1.047805066303196</v>
       </c>
       <c r="J2">
-        <v>1.025684015345196</v>
+        <v>1.02451645658848</v>
       </c>
       <c r="K2">
-        <v>1.032460453882426</v>
+        <v>1.033400660575501</v>
       </c>
       <c r="L2">
-        <v>1.025095844079521</v>
+        <v>1.025989259960391</v>
       </c>
       <c r="M2">
-        <v>1.028058075740955</v>
+        <v>1.028466594788457</v>
       </c>
       <c r="N2">
-        <v>1.027140604294587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011751410548119</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03468738674367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013731943227971</v>
+        <v>1.007728319901878</v>
       </c>
       <c r="D3">
-        <v>1.029129726030539</v>
+        <v>1.025803955948904</v>
       </c>
       <c r="E3">
-        <v>1.022988774893802</v>
+        <v>1.019366290904289</v>
       </c>
       <c r="F3">
-        <v>1.026835999016765</v>
+        <v>1.022571862722812</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050809050507514</v>
+        <v>1.049118769308049</v>
       </c>
       <c r="J3">
-        <v>1.033855135056498</v>
+        <v>1.028010497581894</v>
       </c>
       <c r="K3">
-        <v>1.039402974488717</v>
+        <v>1.03611698207581</v>
       </c>
       <c r="L3">
-        <v>1.03333572278027</v>
+        <v>1.029757230816422</v>
       </c>
       <c r="M3">
-        <v>1.037136647253569</v>
+        <v>1.032923853945747</v>
       </c>
       <c r="N3">
-        <v>1.03532332793312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012947002189472</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036605408355226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020021030103323</v>
+        <v>1.011092684040555</v>
       </c>
       <c r="D4">
-        <v>1.0340029997905</v>
+        <v>1.028057259826451</v>
       </c>
       <c r="E4">
-        <v>1.028684959591442</v>
+        <v>1.022303375105594</v>
       </c>
       <c r="F4">
-        <v>1.033061458906141</v>
+        <v>1.025949956455932</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052958494288936</v>
+        <v>1.049934406450318</v>
       </c>
       <c r="J4">
-        <v>1.038926100319124</v>
+        <v>1.030216832047206</v>
       </c>
       <c r="K4">
-        <v>1.043707653985652</v>
+        <v>1.037828452719427</v>
       </c>
       <c r="L4">
-        <v>1.038449083175729</v>
+        <v>1.032139868699121</v>
       </c>
       <c r="M4">
-        <v>1.042776587072786</v>
+        <v>1.035744960299395</v>
       </c>
       <c r="N4">
-        <v>1.040401494548067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013701867031185</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037816476052357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022607409192676</v>
+        <v>1.01249336579105</v>
       </c>
       <c r="D5">
-        <v>1.036007379096364</v>
+        <v>1.028997533019343</v>
       </c>
       <c r="E5">
-        <v>1.031028013294466</v>
+        <v>1.023528134679444</v>
       </c>
       <c r="F5">
-        <v>1.035623245947641</v>
+        <v>1.027358288625182</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053838108195438</v>
+        <v>1.050271690483622</v>
       </c>
       <c r="J5">
-        <v>1.041009909791857</v>
+        <v>1.031136026285034</v>
       </c>
       <c r="K5">
-        <v>1.045475607059056</v>
+        <v>1.038541987985313</v>
       </c>
       <c r="L5">
-        <v>1.040550257364353</v>
+        <v>1.033132957085173</v>
       </c>
       <c r="M5">
-        <v>1.045095618311812</v>
+        <v>1.036920753554036</v>
       </c>
       <c r="N5">
-        <v>1.042488263269267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014017264852358</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038328196735788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023038424703796</v>
+        <v>1.012732774860024</v>
       </c>
       <c r="D6">
-        <v>1.036341415195145</v>
+        <v>1.029160526065226</v>
       </c>
       <c r="E6">
-        <v>1.031418506092725</v>
+        <v>1.023738129086868</v>
       </c>
       <c r="F6">
-        <v>1.036050253750723</v>
+        <v>1.027599102450304</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053984436290506</v>
+        <v>1.05033080524521</v>
       </c>
       <c r="J6">
-        <v>1.041357075441159</v>
+        <v>1.031294777608633</v>
       </c>
       <c r="K6">
-        <v>1.045770092290541</v>
+        <v>1.03866691051829</v>
       </c>
       <c r="L6">
-        <v>1.040900312943114</v>
+        <v>1.033304079343471</v>
       </c>
       <c r="M6">
-        <v>1.045482055947824</v>
+        <v>1.03712256021731</v>
       </c>
       <c r="N6">
-        <v>1.042835921933612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01407287735979</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038425291258157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020055809788276</v>
+        <v>1.011125625130662</v>
       </c>
       <c r="D7">
-        <v>1.034029952410008</v>
+        <v>1.028085401937698</v>
       </c>
       <c r="E7">
-        <v>1.02871646533985</v>
+        <v>1.022333724440995</v>
       </c>
       <c r="F7">
-        <v>1.033095901749304</v>
+        <v>1.025983047460831</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052970340012927</v>
+        <v>1.049946843938023</v>
       </c>
       <c r="J7">
-        <v>1.038954128349329</v>
+        <v>1.03024296707255</v>
       </c>
       <c r="K7">
-        <v>1.043731437526823</v>
+        <v>1.03785338589044</v>
       </c>
       <c r="L7">
-        <v>1.038477344980195</v>
+        <v>1.03216695766073</v>
       </c>
       <c r="M7">
-        <v>1.042807773293849</v>
+        <v>1.035774776773342</v>
       </c>
       <c r="N7">
-        <v>1.040429562381289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013713954275564</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037854269837087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007088108617315</v>
+        <v>1.004240128010914</v>
       </c>
       <c r="D8">
-        <v>1.02398297330869</v>
+        <v>1.023476270744828</v>
       </c>
       <c r="E8">
-        <v>1.016973345136364</v>
+        <v>1.016328495362223</v>
       </c>
       <c r="F8">
-        <v>1.020265143852176</v>
+        <v>1.019076350033841</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048523352003282</v>
+        <v>1.048266022171993</v>
       </c>
       <c r="J8">
-        <v>1.02849267901415</v>
+        <v>1.025726044086568</v>
       </c>
       <c r="K8">
-        <v>1.034847591310132</v>
+        <v>1.034347360384961</v>
       </c>
       <c r="L8">
-        <v>1.027928207118755</v>
+        <v>1.027291737608114</v>
       </c>
       <c r="M8">
-        <v>1.031177433120021</v>
+        <v>1.030003974234031</v>
       </c>
       <c r="N8">
-        <v>1.029953256588109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012169440417659</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035379803847029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9819996875711182</v>
+        <v>0.9914450805174886</v>
       </c>
       <c r="D9">
-        <v>1.004570368807542</v>
+        <v>1.014917969479102</v>
       </c>
       <c r="E9">
-        <v>0.9942806399514532</v>
+        <v>1.005220343485688</v>
       </c>
       <c r="F9">
-        <v>0.9955034696133176</v>
+        <v>1.006309182746265</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039777330276239</v>
+        <v>1.045018279979439</v>
       </c>
       <c r="J9">
-        <v>1.008204497601713</v>
+        <v>1.017303594491853</v>
       </c>
       <c r="K9">
-        <v>1.017589727634116</v>
+        <v>1.027773562432289</v>
       </c>
       <c r="L9">
-        <v>1.007467196386544</v>
+        <v>1.018229288271473</v>
       </c>
       <c r="M9">
-        <v>1.008669923605381</v>
+        <v>1.01930072054458</v>
       </c>
       <c r="N9">
-        <v>1.00963626363098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009283575623333</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.030728420898789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9633524281865909</v>
+        <v>0.9824330148671568</v>
       </c>
       <c r="D10">
-        <v>0.9901762068504222</v>
+        <v>1.008908674095918</v>
       </c>
       <c r="E10">
-        <v>0.9774420701428094</v>
+        <v>0.9974374161639248</v>
       </c>
       <c r="F10">
-        <v>0.9771495323878188</v>
+        <v>0.9973651737531561</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03318644380852</v>
+        <v>1.042656741678174</v>
       </c>
       <c r="J10">
-        <v>0.9930994817066268</v>
+        <v>1.011361374821182</v>
       </c>
       <c r="K10">
-        <v>1.004725127533765</v>
+        <v>1.023118921300827</v>
       </c>
       <c r="L10">
-        <v>0.9922309201027792</v>
+        <v>1.011853093513298</v>
       </c>
       <c r="M10">
-        <v>0.9919439903709325</v>
+        <v>1.011782164319994</v>
       </c>
       <c r="N10">
-        <v>0.9945097968807527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007249164834575</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027454194012821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9547005541318393</v>
+        <v>0.9784193244907035</v>
       </c>
       <c r="D11">
-        <v>0.9835107369227853</v>
+        <v>1.006244338693025</v>
       </c>
       <c r="E11">
-        <v>0.9696389054678232</v>
+        <v>0.9939842811681801</v>
       </c>
       <c r="F11">
-        <v>0.9686480584733739</v>
+        <v>0.9933945154122104</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030109118412991</v>
+        <v>1.041592781137985</v>
       </c>
       <c r="J11">
-        <v>0.9860872952326324</v>
+        <v>1.008718283440966</v>
       </c>
       <c r="K11">
-        <v>0.9987504632875979</v>
+        <v>1.021049448932319</v>
       </c>
       <c r="L11">
-        <v>0.9851570362928861</v>
+        <v>1.009020543879712</v>
       </c>
       <c r="M11">
-        <v>0.9841864779008013</v>
+        <v>1.008442085941996</v>
       </c>
       <c r="N11">
-        <v>0.9874876522976563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006349407883403</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026024171232281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9513868544188536</v>
+        <v>0.9768977320438537</v>
       </c>
       <c r="D12">
-        <v>0.9809603108305335</v>
+        <v>1.005231408746217</v>
       </c>
       <c r="E12">
-        <v>0.9666519996516981</v>
+        <v>0.9926753891221155</v>
       </c>
       <c r="F12">
-        <v>0.9653943554979033</v>
+        <v>0.9918907661135212</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028927820121993</v>
+        <v>1.041184342012776</v>
       </c>
       <c r="J12">
-        <v>0.9834012696293943</v>
+        <v>1.007713056142294</v>
       </c>
       <c r="K12">
-        <v>0.9964616035729909</v>
+        <v>1.020259064866754</v>
       </c>
       <c r="L12">
-        <v>0.9824472511669065</v>
+        <v>1.00794427548804</v>
       </c>
       <c r="M12">
-        <v>0.9812159959968814</v>
+        <v>1.007174992950405</v>
       </c>
       <c r="N12">
-        <v>0.9847978122299704</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006004576266921</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02546533099429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9521024256871611</v>
+        <v>0.9772231094502535</v>
       </c>
       <c r="D13">
-        <v>0.981510937639019</v>
+        <v>1.00544723768805</v>
       </c>
       <c r="E13">
-        <v>0.9672969182449945</v>
+        <v>0.992954912858419</v>
       </c>
       <c r="F13">
-        <v>0.9660968586449246</v>
+        <v>0.9922121675324737</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029183029737525</v>
+        <v>1.041271288090521</v>
       </c>
       <c r="J13">
-        <v>0.9839813094124127</v>
+        <v>1.007927441713927</v>
       </c>
       <c r="K13">
-        <v>0.996955885885181</v>
+        <v>1.020427130165179</v>
       </c>
       <c r="L13">
-        <v>0.9830324276197863</v>
+        <v>1.008173849537751</v>
       </c>
       <c r="M13">
-        <v>0.9818574169822684</v>
+        <v>1.007445565503932</v>
       </c>
       <c r="N13">
-        <v>0.9853786757360122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006077584867763</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025581636809136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9544287702226203</v>
+        <v>0.9782931403172301</v>
       </c>
       <c r="D14">
-        <v>0.9833015021740816</v>
+        <v>1.006160004116326</v>
       </c>
       <c r="E14">
-        <v>0.969393887616172</v>
+        <v>0.9938755771246551</v>
       </c>
       <c r="F14">
-        <v>0.9683811454932592</v>
+        <v>0.9932697410766389</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030012282846089</v>
+        <v>1.041558743263516</v>
       </c>
       <c r="J14">
-        <v>0.9858669972084235</v>
+        <v>1.008634676654558</v>
       </c>
       <c r="K14">
-        <v>0.9985627437851788</v>
+        <v>1.020983497025624</v>
       </c>
       <c r="L14">
-        <v>0.9849347922138453</v>
+        <v>1.008931044593371</v>
       </c>
       <c r="M14">
-        <v>0.9839428289752695</v>
+        <v>1.008336843343192</v>
       </c>
       <c r="N14">
-        <v>0.9872670414249846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00632050067848</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025976458782155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9558484084930644</v>
+        <v>0.9789535269148704</v>
       </c>
       <c r="D15">
-        <v>0.9843945239420532</v>
+        <v>1.006601487925227</v>
       </c>
       <c r="E15">
-        <v>0.9706737879727805</v>
+        <v>0.9944445776771251</v>
       </c>
       <c r="F15">
-        <v>0.9697754392471665</v>
+        <v>0.9939228322586569</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030517987985253</v>
+        <v>1.041736835248466</v>
       </c>
       <c r="J15">
-        <v>0.9870176918186521</v>
+        <v>1.009072285596524</v>
       </c>
       <c r="K15">
-        <v>0.9995432595896602</v>
+        <v>1.021328732659157</v>
       </c>
       <c r="L15">
-        <v>0.9860956465838878</v>
+        <v>1.009399512126792</v>
       </c>
       <c r="M15">
-        <v>0.9852155355288768</v>
+        <v>1.008887701670297</v>
       </c>
       <c r="N15">
-        <v>0.9884193701535461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006471858043256</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026226501384023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9639133923974299</v>
+        <v>0.9827301764341733</v>
       </c>
       <c r="D16">
-        <v>0.9906086857912884</v>
+        <v>1.00911887243259</v>
       </c>
       <c r="E16">
-        <v>0.9779482251720287</v>
+        <v>0.9976981946175365</v>
       </c>
       <c r="F16">
-        <v>0.977701057081521</v>
+        <v>0.9976605500620169</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033385592112513</v>
+        <v>1.042744026887477</v>
       </c>
       <c r="J16">
-        <v>0.9935540737277808</v>
+        <v>1.011567103722789</v>
       </c>
       <c r="K16">
-        <v>1.005112415939538</v>
+        <v>1.023289211920305</v>
       </c>
       <c r="L16">
-        <v>0.9926894952934683</v>
+        <v>1.012072333253943</v>
       </c>
       <c r="M16">
-        <v>0.9924470447660666</v>
+        <v>1.012035370490229</v>
       </c>
       <c r="N16">
-        <v>0.9949650344747194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007328144875825</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027615855128002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.968809258568393</v>
+        <v>0.9850633474185222</v>
       </c>
       <c r="D17">
-        <v>0.9943846898176215</v>
+        <v>1.010675559881198</v>
       </c>
       <c r="E17">
-        <v>0.9823668281481353</v>
+        <v>0.9997110204607651</v>
       </c>
       <c r="F17">
-        <v>0.9825161545504346</v>
+        <v>0.9999728717265471</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035121550557787</v>
+        <v>1.043361849931277</v>
       </c>
       <c r="J17">
-        <v>0.9975211645694649</v>
+        <v>1.013107872194578</v>
       </c>
       <c r="K17">
-        <v>1.008491897364931</v>
+        <v>1.024498961685115</v>
       </c>
       <c r="L17">
-        <v>0.9966912597415368</v>
+        <v>1.013724118433005</v>
       </c>
       <c r="M17">
-        <v>0.9968378445854136</v>
+        <v>1.013981376616456</v>
       </c>
       <c r="N17">
-        <v>0.9989377590404303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007856978728467</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028473816736761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9716102464648562</v>
+        <v>0.986401478018243</v>
       </c>
       <c r="D18">
-        <v>0.9965461627525313</v>
+        <v>1.011564893774339</v>
       </c>
       <c r="E18">
-        <v>0.9848956263691301</v>
+        <v>1.000864943596267</v>
       </c>
       <c r="F18">
-        <v>0.985272239409818</v>
+        <v>1.001299864849282</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036112911400465</v>
+        <v>1.043711821135901</v>
       </c>
       <c r="J18">
-        <v>0.9997904165685162</v>
+        <v>1.013988250962344</v>
       </c>
       <c r="K18">
-        <v>1.01042478144192</v>
+        <v>1.025186943992227</v>
       </c>
       <c r="L18">
-        <v>0.99898027590428</v>
+        <v>1.014668763670855</v>
       </c>
       <c r="M18">
-        <v>0.9993501298284584</v>
+        <v>1.015096198591816</v>
       </c>
       <c r="N18">
-        <v>1.001210233637607</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008156469067583</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028948492686953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9725563913130267</v>
+        <v>0.9868636177337317</v>
       </c>
       <c r="D19">
-        <v>0.997276471594282</v>
+        <v>1.011875185887126</v>
       </c>
       <c r="E19">
-        <v>0.9857499661253616</v>
+        <v>1.001264755057218</v>
       </c>
       <c r="F19">
-        <v>0.9862034316534682</v>
+        <v>1.001758587457771</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036447470926946</v>
+        <v>1.043834559100757</v>
       </c>
       <c r="J19">
-        <v>1.000556877168122</v>
+        <v>1.014294665682941</v>
       </c>
       <c r="K19">
-        <v>1.011077586024649</v>
+        <v>1.025428577476516</v>
       </c>
       <c r="L19">
-        <v>0.9997534005410762</v>
+        <v>1.014997266413441</v>
       </c>
       <c r="M19">
-        <v>1.000198790581771</v>
+        <v>1.015482653428508</v>
       </c>
       <c r="N19">
-        <v>1.001977782699178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008262796195703</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029125794875229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9682897216008648</v>
+        <v>0.9848135211926197</v>
       </c>
       <c r="D20">
-        <v>0.9939838643543212</v>
+        <v>1.010508518626512</v>
       </c>
       <c r="E20">
-        <v>0.9818978457348085</v>
+        <v>0.999495279718611</v>
       </c>
       <c r="F20">
-        <v>0.9820050509421123</v>
+        <v>0.9997251346168747</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034937521455438</v>
+        <v>1.043295650003611</v>
       </c>
       <c r="J20">
-        <v>0.9971002240780984</v>
+        <v>1.012942674105521</v>
       </c>
       <c r="K20">
-        <v>1.008133331631634</v>
+        <v>1.024369071347693</v>
       </c>
       <c r="L20">
-        <v>0.9962666474577404</v>
+        <v>1.013547009833678</v>
       </c>
       <c r="M20">
-        <v>0.9963718762005589</v>
+        <v>1.013772818923554</v>
       </c>
       <c r="N20">
-        <v>0.9985162207652837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007800068527577</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028380629292287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.953746601987805</v>
+        <v>0.9779897120305744</v>
       </c>
       <c r="D21">
-        <v>0.9827763717254682</v>
+        <v>1.005961972081658</v>
       </c>
       <c r="E21">
-        <v>0.9687789302212311</v>
+        <v>0.9936161028416655</v>
       </c>
       <c r="F21">
-        <v>0.9677112423947478</v>
+        <v>0.9929702104740437</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029769186956081</v>
+        <v>1.041480128903084</v>
       </c>
       <c r="J21">
-        <v>0.9853140523555453</v>
+        <v>1.008437395359845</v>
       </c>
       <c r="K21">
-        <v>0.9980915668732925</v>
+        <v>1.0208312666073</v>
       </c>
       <c r="L21">
-        <v>0.9843769607289947</v>
+        <v>1.008719437920791</v>
       </c>
       <c r="M21">
-        <v>0.9833312902753738</v>
+        <v>1.008085999604308</v>
       </c>
       <c r="N21">
-        <v>0.9867133113269916</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00625571857818</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025882505914136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9440151759695858</v>
+        <v>0.973563624575808</v>
       </c>
       <c r="D22">
-        <v>0.9752918660415961</v>
+        <v>1.003013224919191</v>
       </c>
       <c r="E22">
-        <v>0.9600109286586536</v>
+        <v>0.9898102701151191</v>
       </c>
       <c r="F22">
-        <v>0.9581609051100723</v>
+        <v>0.9885992110395906</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026295238794055</v>
+        <v>1.040284592151575</v>
       </c>
       <c r="J22">
-        <v>0.9774256213316469</v>
+        <v>1.005509643376498</v>
       </c>
       <c r="K22">
-        <v>0.9913692175271461</v>
+        <v>1.018525224642394</v>
       </c>
       <c r="L22">
-        <v>0.9764184982094692</v>
+        <v>1.00558632673104</v>
       </c>
       <c r="M22">
-        <v>0.9746094047878694</v>
+        <v>1.004399954290793</v>
       </c>
       <c r="N22">
-        <v>0.9788136778262236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005248394360592</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024238334375412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9492349529252785</v>
+        <v>0.9759087086410146</v>
       </c>
       <c r="D23">
-        <v>0.9793048462906637</v>
+        <v>1.004570098813935</v>
       </c>
       <c r="E23">
-        <v>0.9647128500928783</v>
+        <v>0.9918238010225195</v>
       </c>
       <c r="F23">
-        <v>0.9632821257587105</v>
+        <v>0.9909135418160967</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028159969708173</v>
+        <v>1.040915977066452</v>
       </c>
       <c r="J23">
-        <v>0.9816569181184641</v>
+        <v>1.00705706421529</v>
       </c>
       <c r="K23">
-        <v>0.9949751231981006</v>
+        <v>1.019740835290759</v>
       </c>
       <c r="L23">
-        <v>0.9806874328019685</v>
+        <v>1.007242376482053</v>
       </c>
       <c r="M23">
-        <v>0.9792872029964761</v>
+        <v>1.006350136895407</v>
       </c>
       <c r="N23">
-        <v>0.9830509835398148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005777209543454</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025088081258919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9685246460236672</v>
+        <v>0.984904750136532</v>
       </c>
       <c r="D24">
-        <v>0.9941651061476803</v>
+        <v>1.010561255211775</v>
       </c>
       <c r="E24">
-        <v>0.9821099077265795</v>
+        <v>0.9995709933014395</v>
       </c>
       <c r="F24">
-        <v>0.9822361579147739</v>
+        <v>0.999814933408926</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035020741438905</v>
+        <v>1.043314058598835</v>
       </c>
       <c r="J24">
-        <v>0.9972905662838984</v>
+        <v>1.012996522600207</v>
       </c>
       <c r="K24">
-        <v>1.008295469790899</v>
+        <v>1.024405407531108</v>
       </c>
       <c r="L24">
-        <v>0.9964586502028732</v>
+        <v>1.013605646969024</v>
       </c>
       <c r="M24">
-        <v>0.9965825771921696</v>
+        <v>1.01384529980362</v>
       </c>
       <c r="N24">
-        <v>0.998706833278848</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007812975749595</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028378637907159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9887892663133099</v>
+        <v>0.994856838429201</v>
       </c>
       <c r="D25">
-        <v>1.009819503631593</v>
+        <v>1.017206512031619</v>
       </c>
       <c r="E25">
-        <v>1.000417963656832</v>
+        <v>1.008178584572965</v>
       </c>
       <c r="F25">
-        <v>1.002196817739361</v>
+        <v>1.009705819567416</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042159917089221</v>
+        <v>1.045903985901016</v>
       </c>
       <c r="J25">
-        <v>1.013699897535288</v>
+        <v>1.019558538904159</v>
       </c>
       <c r="K25">
-        <v>1.022267273178122</v>
+        <v>1.029543464559734</v>
       </c>
       <c r="L25">
-        <v>1.013009794741011</v>
+        <v>1.020651251505351</v>
       </c>
       <c r="M25">
-        <v>1.014761126395782</v>
+        <v>1.022155310698739</v>
       </c>
       <c r="N25">
-        <v>1.015139467662791</v>
+        <v>1.010061791213762</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032008673527938</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002407516243619</v>
+        <v>1.002506538182319</v>
       </c>
       <c r="D2">
-        <v>1.022242743690547</v>
+        <v>1.021928993437377</v>
       </c>
       <c r="E2">
-        <v>1.01473141191434</v>
+        <v>1.014846176959371</v>
       </c>
       <c r="F2">
-        <v>1.017242358716207</v>
+        <v>1.01735489490879</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047805066303196</v>
+        <v>1.047645787969575</v>
       </c>
       <c r="J2">
-        <v>1.02451645658848</v>
+        <v>1.024612536717474</v>
       </c>
       <c r="K2">
-        <v>1.033400660575501</v>
+        <v>1.033091047600437</v>
       </c>
       <c r="L2">
-        <v>1.025989259960391</v>
+        <v>1.026102484182469</v>
       </c>
       <c r="M2">
-        <v>1.028466594788457</v>
+        <v>1.028577629430076</v>
       </c>
       <c r="N2">
-        <v>1.011751410548119</v>
+        <v>1.01350695119963</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03468738674367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034477280539718</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020875611059565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007728319901878</v>
+        <v>1.00745599146609</v>
       </c>
       <c r="D3">
-        <v>1.025803955948904</v>
+        <v>1.025103166284849</v>
       </c>
       <c r="E3">
-        <v>1.019366290904289</v>
+        <v>1.019146841349627</v>
       </c>
       <c r="F3">
-        <v>1.022571862722812</v>
+        <v>1.022335050813086</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049118769308049</v>
+        <v>1.048762622897284</v>
       </c>
       <c r="J3">
-        <v>1.028010497581894</v>
+        <v>1.02774544190176</v>
       </c>
       <c r="K3">
-        <v>1.03611698207581</v>
+        <v>1.035424615019734</v>
       </c>
       <c r="L3">
-        <v>1.029757230816422</v>
+        <v>1.029540458780147</v>
       </c>
       <c r="M3">
-        <v>1.032923853945747</v>
+        <v>1.032689908996281</v>
       </c>
       <c r="N3">
-        <v>1.012947002189472</v>
+        <v>1.014356176925679</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036605408355226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036124373662364</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021393704408461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011092684040555</v>
+        <v>1.010589073458213</v>
       </c>
       <c r="D4">
-        <v>1.028057259826451</v>
+        <v>1.027113970705251</v>
       </c>
       <c r="E4">
-        <v>1.022303375105594</v>
+        <v>1.021875605273806</v>
       </c>
       <c r="F4">
-        <v>1.025949956455932</v>
+        <v>1.025495651567124</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049934406450318</v>
+        <v>1.049454681888771</v>
       </c>
       <c r="J4">
-        <v>1.030216832047206</v>
+        <v>1.029725734217417</v>
       </c>
       <c r="K4">
-        <v>1.037828452719427</v>
+        <v>1.036895807174199</v>
       </c>
       <c r="L4">
-        <v>1.032139868699121</v>
+        <v>1.031716989854483</v>
       </c>
       <c r="M4">
-        <v>1.035744960299395</v>
+        <v>1.035295804523018</v>
       </c>
       <c r="N4">
-        <v>1.013701867031185</v>
+        <v>1.014893028536749</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037816476052357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037165619708637</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021717728999693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01249336579105</v>
+        <v>1.011894096023294</v>
       </c>
       <c r="D5">
-        <v>1.028997533019343</v>
+        <v>1.027953764459135</v>
       </c>
       <c r="E5">
-        <v>1.023528134679444</v>
+        <v>1.023014121164599</v>
       </c>
       <c r="F5">
-        <v>1.027358288625182</v>
+        <v>1.026814012458247</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050271690483622</v>
+        <v>1.049740707043328</v>
       </c>
       <c r="J5">
-        <v>1.031136026285034</v>
+        <v>1.030551188709632</v>
       </c>
       <c r="K5">
-        <v>1.038541987985313</v>
+        <v>1.037509678884773</v>
       </c>
       <c r="L5">
-        <v>1.033132957085173</v>
+        <v>1.032624657711846</v>
       </c>
       <c r="M5">
-        <v>1.036920753554036</v>
+        <v>1.036382472837733</v>
       </c>
       <c r="N5">
-        <v>1.014017264852358</v>
+        <v>1.015117473444832</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038328196735788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037607579670473</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021852830896232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012732774860024</v>
+        <v>1.012117010196937</v>
       </c>
       <c r="D6">
-        <v>1.029160526065226</v>
+        <v>1.028099584638405</v>
       </c>
       <c r="E6">
-        <v>1.023738129086868</v>
+        <v>1.023209181562702</v>
       </c>
       <c r="F6">
-        <v>1.027599102450304</v>
+        <v>1.027039265994285</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05033080524521</v>
+        <v>1.049791058469983</v>
       </c>
       <c r="J6">
-        <v>1.031294777608633</v>
+        <v>1.030693763959266</v>
       </c>
       <c r="K6">
-        <v>1.03866691051829</v>
+        <v>1.037617562971932</v>
       </c>
       <c r="L6">
-        <v>1.033304079343471</v>
+        <v>1.032780983931947</v>
       </c>
       <c r="M6">
-        <v>1.03712256021731</v>
+        <v>1.036568860795607</v>
       </c>
       <c r="N6">
-        <v>1.01407287735979</v>
+        <v>1.015157037968907</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038425291258157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037693496614472</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021877182770786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011125625130662</v>
+        <v>1.010631357988189</v>
       </c>
       <c r="D7">
-        <v>1.028085401937698</v>
+        <v>1.027147990289382</v>
       </c>
       <c r="E7">
-        <v>1.022333724440995</v>
+        <v>1.021914749347701</v>
       </c>
       <c r="F7">
-        <v>1.025983047460831</v>
+        <v>1.025537816475145</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049946843938023</v>
+        <v>1.049470106305978</v>
       </c>
       <c r="J7">
-        <v>1.03024296707255</v>
+        <v>1.029760974821026</v>
       </c>
       <c r="K7">
-        <v>1.03785338589044</v>
+        <v>1.036926547182622</v>
       </c>
       <c r="L7">
-        <v>1.03216695766073</v>
+        <v>1.031752770995836</v>
       </c>
       <c r="M7">
-        <v>1.035774776773342</v>
+        <v>1.035334589915301</v>
       </c>
       <c r="N7">
-        <v>1.013713954275564</v>
+        <v>1.014931482526381</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037854269837087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037209521107267</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02172707548966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004240128010914</v>
+        <v>1.004247263000835</v>
       </c>
       <c r="D8">
-        <v>1.023476270744828</v>
+        <v>1.023054430151535</v>
       </c>
       <c r="E8">
-        <v>1.016328495362223</v>
+        <v>1.016362222258658</v>
       </c>
       <c r="F8">
-        <v>1.019076350033841</v>
+        <v>1.019103648306864</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048266022171993</v>
+        <v>1.048051792789405</v>
       </c>
       <c r="J8">
-        <v>1.025726044086568</v>
+        <v>1.025732974493356</v>
       </c>
       <c r="K8">
-        <v>1.034347360384961</v>
+        <v>1.03393091367879</v>
       </c>
       <c r="L8">
-        <v>1.027291737608114</v>
+        <v>1.027325025870508</v>
       </c>
       <c r="M8">
-        <v>1.030003974234031</v>
+        <v>1.030030919868886</v>
       </c>
       <c r="N8">
-        <v>1.012169440417659</v>
+        <v>1.013894949607301</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035379803847029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035096419254352</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021067387377846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9914450805174886</v>
+        <v>0.992375311512368</v>
       </c>
       <c r="D9">
-        <v>1.014917969479102</v>
+        <v>1.015445761038949</v>
       </c>
       <c r="E9">
-        <v>1.005220343485688</v>
+        <v>1.006084137359159</v>
       </c>
       <c r="F9">
-        <v>1.006309182746265</v>
+        <v>1.007205827047959</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045018279979439</v>
+        <v>1.045285657480662</v>
       </c>
       <c r="J9">
-        <v>1.017303594491853</v>
+        <v>1.018200220353182</v>
       </c>
       <c r="K9">
-        <v>1.027773562432289</v>
+        <v>1.028293115296355</v>
       </c>
       <c r="L9">
-        <v>1.018229288271473</v>
+        <v>1.019079268939323</v>
       </c>
       <c r="M9">
-        <v>1.01930072054458</v>
+        <v>1.020183066640924</v>
       </c>
       <c r="N9">
-        <v>1.009283575623333</v>
+        <v>1.011861425640874</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030728420898789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031106613265486</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019799400109432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9824330148671568</v>
+        <v>0.9840958504076385</v>
       </c>
       <c r="D10">
-        <v>1.008908674095918</v>
+        <v>1.01016027932556</v>
       </c>
       <c r="E10">
-        <v>0.9974374161639248</v>
+        <v>0.9989612019159471</v>
       </c>
       <c r="F10">
-        <v>0.9973651737531561</v>
+        <v>0.99895432300375</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042656741678174</v>
+        <v>1.04328977798206</v>
       </c>
       <c r="J10">
-        <v>1.011361374821182</v>
+        <v>1.012954999100852</v>
       </c>
       <c r="K10">
-        <v>1.023118921300827</v>
+        <v>1.024348478384169</v>
       </c>
       <c r="L10">
-        <v>1.011853093513298</v>
+        <v>1.013349237547247</v>
       </c>
       <c r="M10">
-        <v>1.011782164319994</v>
+        <v>1.013342483173199</v>
       </c>
       <c r="N10">
-        <v>1.007249164834575</v>
+        <v>1.010562776736806</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027454194012821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028336114064642</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018903088439385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9784193244907035</v>
+        <v>0.9805062952026218</v>
       </c>
       <c r="D11">
-        <v>1.006244338693025</v>
+        <v>1.007886048143237</v>
       </c>
       <c r="E11">
-        <v>0.9939842811681801</v>
+        <v>0.9958947576323579</v>
       </c>
       <c r="F11">
-        <v>0.9933945154122104</v>
+        <v>0.9953884114639275</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041592781137985</v>
+        <v>1.042422548665641</v>
       </c>
       <c r="J11">
-        <v>1.008718283440966</v>
+        <v>1.010713138674119</v>
       </c>
       <c r="K11">
-        <v>1.021049448932319</v>
+        <v>1.022660761907835</v>
       </c>
       <c r="L11">
-        <v>1.009020543879712</v>
+        <v>1.010894510304856</v>
       </c>
       <c r="M11">
-        <v>1.008442085941996</v>
+        <v>1.01039782277332</v>
       </c>
       <c r="N11">
-        <v>1.006349407883403</v>
+        <v>1.01019937865313</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026024171232281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027179226982904</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018525070446999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9768977320438537</v>
+        <v>0.9791559763534891</v>
       </c>
       <c r="D12">
-        <v>1.005231408746217</v>
+        <v>1.007028072494489</v>
       </c>
       <c r="E12">
-        <v>0.9926753891221155</v>
+        <v>0.9947427079284982</v>
       </c>
       <c r="F12">
-        <v>0.9918907661135212</v>
+        <v>0.9940487095261583</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041184342012776</v>
+        <v>1.042092194157747</v>
       </c>
       <c r="J12">
-        <v>1.007713056142294</v>
+        <v>1.009869461498032</v>
       </c>
       <c r="K12">
-        <v>1.020259064866754</v>
+        <v>1.022021853117665</v>
       </c>
       <c r="L12">
-        <v>1.00794427548804</v>
+        <v>1.00997132725491</v>
       </c>
       <c r="M12">
-        <v>1.007174992950405</v>
+        <v>1.009290821999352</v>
       </c>
       <c r="N12">
-        <v>1.006004576266921</v>
+        <v>1.010078079269888</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02546533099429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026727498252392</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018381008145521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9772231094502535</v>
+        <v>0.979444392814021</v>
       </c>
       <c r="D13">
-        <v>1.00544723768805</v>
+        <v>1.007210493038285</v>
       </c>
       <c r="E13">
-        <v>0.992954912858419</v>
+        <v>0.9949884037531815</v>
       </c>
       <c r="F13">
-        <v>0.9922121675324737</v>
+        <v>0.9943347205541972</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041271288090521</v>
+        <v>1.042162308122208</v>
       </c>
       <c r="J13">
-        <v>1.007927441713927</v>
+        <v>1.010049011260548</v>
       </c>
       <c r="K13">
-        <v>1.020427130165179</v>
+        <v>1.022157268588197</v>
       </c>
       <c r="L13">
-        <v>1.008173849537751</v>
+        <v>1.010167893011833</v>
       </c>
       <c r="M13">
-        <v>1.007445565503932</v>
+        <v>1.009526867463599</v>
       </c>
       <c r="N13">
-        <v>1.006077584867763</v>
+        <v>1.010102626997749</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025581636809136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026820476375188</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018411300524668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9782931403172301</v>
+        <v>0.980394156018525</v>
       </c>
       <c r="D14">
-        <v>1.006160004116326</v>
+        <v>1.007814436604969</v>
       </c>
       <c r="E14">
-        <v>0.9938755771246551</v>
+        <v>0.9957989221255168</v>
       </c>
       <c r="F14">
-        <v>0.9932697410766389</v>
+        <v>0.9952770934049562</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041558743263516</v>
+        <v>1.042394923548462</v>
       </c>
       <c r="J14">
-        <v>1.008634676654558</v>
+        <v>1.010642791326719</v>
       </c>
       <c r="K14">
-        <v>1.020983497025624</v>
+        <v>1.02260725114627</v>
       </c>
       <c r="L14">
-        <v>1.008931044593371</v>
+        <v>1.010817575399914</v>
       </c>
       <c r="M14">
-        <v>1.008336843343192</v>
+        <v>1.010305716447298</v>
       </c>
       <c r="N14">
-        <v>1.00632050067848</v>
+        <v>1.010188696429767</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025976458782155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027140208928342</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018512900781603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9789535269148704</v>
+        <v>0.9809814302205163</v>
       </c>
       <c r="D15">
-        <v>1.006601487925227</v>
+        <v>1.008189611363938</v>
       </c>
       <c r="E15">
-        <v>0.9944445776771251</v>
+        <v>0.9963009511623133</v>
       </c>
       <c r="F15">
-        <v>0.9939228322586569</v>
+        <v>0.9958601527568191</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041736835248466</v>
+        <v>1.042539591447439</v>
       </c>
       <c r="J15">
-        <v>1.009072285596524</v>
+        <v>1.011011356340068</v>
       </c>
       <c r="K15">
-        <v>1.021328732659157</v>
+        <v>1.022887639945538</v>
       </c>
       <c r="L15">
-        <v>1.009399512126792</v>
+        <v>1.011220647247606</v>
       </c>
       <c r="M15">
-        <v>1.008887701670297</v>
+        <v>1.010788200689915</v>
       </c>
       <c r="N15">
-        <v>1.006471858043256</v>
+        <v>1.010245424069802</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026226501384023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027344963256263</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018576702458744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9827301764341733</v>
+        <v>0.984361893843285</v>
       </c>
       <c r="D16">
-        <v>1.00911887243259</v>
+        <v>1.01034248500174</v>
       </c>
       <c r="E16">
-        <v>0.9976981946175365</v>
+        <v>0.9991930740643938</v>
       </c>
       <c r="F16">
-        <v>0.9976605500620169</v>
+        <v>0.9992196011085954</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042744026887477</v>
+        <v>1.043362934499645</v>
       </c>
       <c r="J16">
-        <v>1.011567103722789</v>
+        <v>1.013131178673486</v>
       </c>
       <c r="K16">
-        <v>1.023289211920305</v>
+        <v>1.024491343484979</v>
       </c>
       <c r="L16">
-        <v>1.012072333253943</v>
+        <v>1.013540192472713</v>
       </c>
       <c r="M16">
-        <v>1.012035370490229</v>
+        <v>1.013566240984612</v>
       </c>
       <c r="N16">
-        <v>1.007328144875825</v>
+        <v>1.010603090629106</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027615855128002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028482340792968</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018939224929333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9850633474185222</v>
+        <v>0.9864704767036684</v>
       </c>
       <c r="D17">
-        <v>1.010675559881198</v>
+        <v>1.011687883977192</v>
       </c>
       <c r="E17">
-        <v>0.9997110204607651</v>
+        <v>1.001001816665863</v>
       </c>
       <c r="F17">
-        <v>0.9999728717265471</v>
+        <v>1.001318236983733</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043361849931277</v>
+        <v>1.043874096597332</v>
       </c>
       <c r="J17">
-        <v>1.013107872194578</v>
+        <v>1.014458689899121</v>
       </c>
       <c r="K17">
-        <v>1.024498961685115</v>
+        <v>1.025494039416945</v>
       </c>
       <c r="L17">
-        <v>1.013724118433005</v>
+        <v>1.014992303178851</v>
       </c>
       <c r="M17">
-        <v>1.013981376616456</v>
+        <v>1.015303192142574</v>
       </c>
       <c r="N17">
-        <v>1.007856978728467</v>
+        <v>1.010864716690115</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028473816736761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029194141629677</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019166399314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.986401478018243</v>
+        <v>0.9876880352321847</v>
       </c>
       <c r="D18">
-        <v>1.011564893774339</v>
+        <v>1.012461482846505</v>
       </c>
       <c r="E18">
-        <v>1.000864943596267</v>
+        <v>1.002046665866577</v>
       </c>
       <c r="F18">
-        <v>1.001299864849282</v>
+        <v>1.002530918283824</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043711821135901</v>
+        <v>1.044165612948453</v>
       </c>
       <c r="J18">
-        <v>1.013988250962344</v>
+        <v>1.015224380848992</v>
       </c>
       <c r="K18">
-        <v>1.025186943992227</v>
+        <v>1.026068526700207</v>
       </c>
       <c r="L18">
-        <v>1.014668763670855</v>
+        <v>1.015830164462799</v>
       </c>
       <c r="M18">
-        <v>1.015096198591816</v>
+        <v>1.016306107321719</v>
       </c>
       <c r="N18">
-        <v>1.008156469067583</v>
+        <v>1.011027969658435</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028948492686953</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029587435428493</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019295514389299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9868636177337317</v>
+        <v>0.9881095095952005</v>
       </c>
       <c r="D19">
-        <v>1.011875185887126</v>
+        <v>1.012732638166217</v>
       </c>
       <c r="E19">
-        <v>1.001264755057218</v>
+        <v>1.002409610278258</v>
       </c>
       <c r="F19">
-        <v>1.001758587457771</v>
+        <v>1.002951030611923</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043834559100757</v>
+        <v>1.044268578053476</v>
       </c>
       <c r="J19">
-        <v>1.014294665682941</v>
+        <v>1.015492072118366</v>
       </c>
       <c r="K19">
-        <v>1.025428577476516</v>
+        <v>1.026271765774899</v>
       </c>
       <c r="L19">
-        <v>1.014997266413441</v>
+        <v>1.016122559060837</v>
       </c>
       <c r="M19">
-        <v>1.015482653428508</v>
+        <v>1.016654748028808</v>
       </c>
       <c r="N19">
-        <v>1.008262796195703</v>
+        <v>1.011089418637297</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029125794875229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029738208007354</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019342199093086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9848135211926197</v>
+        <v>0.9862439334429612</v>
       </c>
       <c r="D20">
-        <v>1.010508518626512</v>
+        <v>1.011542924477113</v>
       </c>
       <c r="E20">
-        <v>0.999495279718611</v>
+        <v>1.000807213793732</v>
       </c>
       <c r="F20">
-        <v>0.9997251346168747</v>
+        <v>1.001092634275465</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043295650003611</v>
+        <v>1.04381904725456</v>
       </c>
       <c r="J20">
-        <v>1.012942674105521</v>
+        <v>1.01431562449927</v>
       </c>
       <c r="K20">
-        <v>1.024369071347693</v>
+        <v>1.025385797333383</v>
       </c>
       <c r="L20">
-        <v>1.013547009833678</v>
+        <v>1.014835884155173</v>
       </c>
       <c r="M20">
-        <v>1.013772818923554</v>
+        <v>1.015116298197419</v>
       </c>
       <c r="N20">
-        <v>1.007800068527577</v>
+        <v>1.01083482273018</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028380629292287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029116132853857</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019141758962119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9779897120305744</v>
+        <v>0.9801555983152942</v>
       </c>
       <c r="D21">
-        <v>1.005961972081658</v>
+        <v>1.007668940641111</v>
       </c>
       <c r="E21">
-        <v>0.9936161028416655</v>
+        <v>0.9956001430658038</v>
       </c>
       <c r="F21">
-        <v>0.9929702104740437</v>
+        <v>0.9950405814911584</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041480128903084</v>
+        <v>1.042342816736914</v>
       </c>
       <c r="J21">
-        <v>1.008437395359845</v>
+        <v>1.010507091666932</v>
       </c>
       <c r="K21">
-        <v>1.0208312666073</v>
+        <v>1.022506464743391</v>
       </c>
       <c r="L21">
-        <v>1.008719437920791</v>
+        <v>1.010665354299484</v>
       </c>
       <c r="M21">
-        <v>1.008085999604308</v>
+        <v>1.010116524693141</v>
       </c>
       <c r="N21">
-        <v>1.00625571857818</v>
+        <v>1.010239936849805</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025882505914136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027083932230477</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018493727459521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.973563624575808</v>
+        <v>0.9762125137979509</v>
       </c>
       <c r="D22">
-        <v>1.003013224919191</v>
+        <v>1.00516016808343</v>
       </c>
       <c r="E22">
-        <v>0.9898102701151191</v>
+        <v>0.9922362756102197</v>
       </c>
       <c r="F22">
-        <v>0.9885992110395906</v>
+        <v>0.9911322092511509</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040284592151575</v>
+        <v>1.041368836379676</v>
       </c>
       <c r="J22">
-        <v>1.005509643376498</v>
+        <v>1.008033469281291</v>
       </c>
       <c r="K22">
-        <v>1.018525224642394</v>
+        <v>1.020630089481053</v>
       </c>
       <c r="L22">
-        <v>1.00558632673104</v>
+        <v>1.00796311844088</v>
       </c>
       <c r="M22">
-        <v>1.004399954290793</v>
+        <v>1.006881409742608</v>
       </c>
       <c r="N22">
-        <v>1.005248394360592</v>
+        <v>1.009839523866876</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024238334375412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025742289007938</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018067361741228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9759087086410146</v>
+        <v>0.9782811177917052</v>
       </c>
       <c r="D23">
-        <v>1.004570098813935</v>
+        <v>1.006469298375139</v>
       </c>
       <c r="E23">
-        <v>0.9918238010225195</v>
+        <v>0.9939959911203878</v>
       </c>
       <c r="F23">
-        <v>0.9909135418160967</v>
+        <v>0.9931811081103434</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040915977066452</v>
+        <v>1.041875481964589</v>
       </c>
       <c r="J23">
-        <v>1.00705706421529</v>
+        <v>1.009321012327929</v>
       </c>
       <c r="K23">
-        <v>1.019740835290759</v>
+        <v>1.021603809587188</v>
       </c>
       <c r="L23">
-        <v>1.007242376482053</v>
+        <v>1.009371740653775</v>
       </c>
       <c r="M23">
-        <v>1.006350136895407</v>
+        <v>1.008572894681044</v>
       </c>
       <c r="N23">
-        <v>1.005777209543454</v>
+        <v>1.010001117013801</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025088081258919</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026420061628436</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018285795821511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.984904750136532</v>
+        <v>0.9863276480979934</v>
       </c>
       <c r="D24">
-        <v>1.010561255211775</v>
+        <v>1.011587831151086</v>
       </c>
       <c r="E24">
-        <v>0.9995709933014395</v>
+        <v>1.000876481692994</v>
       </c>
       <c r="F24">
-        <v>0.999814933408926</v>
+        <v>1.001175578795711</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043314058598835</v>
+        <v>1.043833503853897</v>
       </c>
       <c r="J24">
-        <v>1.012996522600207</v>
+        <v>1.014362355533501</v>
       </c>
       <c r="K24">
-        <v>1.024405407531108</v>
+        <v>1.025414462170382</v>
       </c>
       <c r="L24">
-        <v>1.013605646969024</v>
+        <v>1.014888222794132</v>
       </c>
       <c r="M24">
-        <v>1.01384529980362</v>
+        <v>1.015182081356748</v>
       </c>
       <c r="N24">
-        <v>1.007812975749595</v>
+        <v>1.010839607058125</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028378637907159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029106059049263</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019145694136997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.994856838429201</v>
+        <v>0.9955205648483146</v>
       </c>
       <c r="D25">
-        <v>1.017206512031619</v>
+        <v>1.017467805358837</v>
       </c>
       <c r="E25">
-        <v>1.008178584572965</v>
+        <v>1.008801831602456</v>
       </c>
       <c r="F25">
-        <v>1.009705819567416</v>
+        <v>1.010350549019077</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045903985901016</v>
+        <v>1.046036439879923</v>
       </c>
       <c r="J25">
-        <v>1.019558538904159</v>
+        <v>1.020199625994932</v>
       </c>
       <c r="K25">
-        <v>1.029543464559734</v>
+        <v>1.029800875526033</v>
       </c>
       <c r="L25">
-        <v>1.020651251505351</v>
+        <v>1.021265029956149</v>
       </c>
       <c r="M25">
-        <v>1.022155310698739</v>
+        <v>1.022790283169402</v>
       </c>
       <c r="N25">
-        <v>1.010061791213762</v>
+        <v>1.012373235278871</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032008673527938</v>
+        <v>1.032204297864193</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020142580131468</v>
       </c>
     </row>
   </sheetData>
